--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H2">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I2">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J2">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>335.6174562772141</v>
+        <v>498.9987741792098</v>
       </c>
       <c r="R2">
-        <v>335.6174562772141</v>
+        <v>4490.988967612888</v>
       </c>
       <c r="S2">
-        <v>0.01512576101579955</v>
+        <v>0.02012902628393356</v>
       </c>
       <c r="T2">
-        <v>0.01512576101579955</v>
+        <v>0.02128387118019797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H3">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I3">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J3">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>2927.211840404576</v>
+        <v>3286.224427853734</v>
       </c>
       <c r="R3">
-        <v>2927.211840404576</v>
+        <v>29576.01985068361</v>
       </c>
       <c r="S3">
-        <v>0.1319249219981184</v>
+        <v>0.1325624456532549</v>
       </c>
       <c r="T3">
-        <v>0.1319249219981184</v>
+        <v>0.1401678340927932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H4">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I4">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J4">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>2389.275130458791</v>
+        <v>2759.80731794845</v>
       </c>
       <c r="R4">
-        <v>2389.275130458791</v>
+        <v>24838.26586153605</v>
       </c>
       <c r="S4">
-        <v>0.1076809443262757</v>
+        <v>0.1113273958096449</v>
       </c>
       <c r="T4">
-        <v>0.1076809443262757</v>
+        <v>0.1177144844373643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H5">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I5">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J5">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>2639.01190725551</v>
+        <v>2841.130838986078</v>
       </c>
       <c r="R5">
-        <v>2639.01190725551</v>
+        <v>25570.1775508747</v>
       </c>
       <c r="S5">
-        <v>0.1189361956012962</v>
+        <v>0.1146078914284188</v>
       </c>
       <c r="T5">
-        <v>0.1189361956012962</v>
+        <v>0.121183189041964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H6">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I6">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J6">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>1040.174466079981</v>
+        <v>1218.90656308077</v>
       </c>
       <c r="R6">
-        <v>1040.174466079981</v>
+        <v>7313.439378484618</v>
       </c>
       <c r="S6">
-        <v>0.04687905856621222</v>
+        <v>0.0491692635643636</v>
       </c>
       <c r="T6">
-        <v>0.04687905856621222</v>
+        <v>0.03466013894453883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H7">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J7">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>102.7780969703358</v>
+        <v>150.1303677926116</v>
       </c>
       <c r="R7">
-        <v>102.7780969703358</v>
+        <v>1351.173310133504</v>
       </c>
       <c r="S7">
-        <v>0.004632050280328389</v>
+        <v>0.006056083252478654</v>
       </c>
       <c r="T7">
-        <v>0.004632050280328389</v>
+        <v>0.006403533583002571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H8">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J8">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>896.4172058360309</v>
+        <v>988.7039959452089</v>
       </c>
       <c r="R8">
-        <v>896.4172058360309</v>
+        <v>8898.335963506879</v>
       </c>
       <c r="S8">
-        <v>0.04040014061344625</v>
+        <v>0.03988316154512995</v>
       </c>
       <c r="T8">
-        <v>0.04040014061344625</v>
+        <v>0.0421713430451981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H9">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J9">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>731.6817002637453</v>
+        <v>830.3244599385315</v>
       </c>
       <c r="R9">
-        <v>731.6817002637453</v>
+        <v>7472.920139446784</v>
       </c>
       <c r="S9">
-        <v>0.03297576550571894</v>
+        <v>0.03349431650566165</v>
       </c>
       <c r="T9">
-        <v>0.03297576550571894</v>
+        <v>0.03541595642628226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H10">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J10">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>808.1600543618451</v>
+        <v>854.7917146800924</v>
       </c>
       <c r="R10">
-        <v>808.1600543618451</v>
+        <v>7693.125432120831</v>
       </c>
       <c r="S10">
-        <v>0.03642252694596435</v>
+        <v>0.03448129691377724</v>
       </c>
       <c r="T10">
-        <v>0.03642252694596435</v>
+        <v>0.03645956199206556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H11">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J11">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>318.5387116828991</v>
+        <v>366.7241285735573</v>
       </c>
       <c r="R11">
-        <v>318.5387116828991</v>
+        <v>2200.344771441344</v>
       </c>
       <c r="S11">
-        <v>0.01435604834337493</v>
+        <v>0.01479322195761281</v>
       </c>
       <c r="T11">
-        <v>0.01435604834337493</v>
+        <v>0.01042796030119673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H12">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I12">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J12">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>115.4127103892026</v>
+        <v>162.9219761355853</v>
       </c>
       <c r="R12">
-        <v>115.4127103892026</v>
+        <v>1466.297785220268</v>
       </c>
       <c r="S12">
-        <v>0.00520147281639261</v>
+        <v>0.006572081755627342</v>
       </c>
       <c r="T12">
-        <v>0.00520147281639261</v>
+        <v>0.006949136013804581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H13">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I13">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J13">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>1006.614662216528</v>
+        <v>1072.944875849898</v>
       </c>
       <c r="R13">
-        <v>1006.614662216528</v>
+        <v>9656.503882649085</v>
       </c>
       <c r="S13">
-        <v>0.04536656997695238</v>
+        <v>0.04328134000473113</v>
       </c>
       <c r="T13">
-        <v>0.04536656997695238</v>
+        <v>0.04576448220460216</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H14">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I14">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J14">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>821.6280575227225</v>
+        <v>901.0708748397253</v>
       </c>
       <c r="R14">
-        <v>821.6280575227225</v>
+        <v>8109.637873557528</v>
       </c>
       <c r="S14">
-        <v>0.03702950907207642</v>
+        <v>0.03634814404738775</v>
       </c>
       <c r="T14">
-        <v>0.03702950907207642</v>
+        <v>0.03843351410203934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H15">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I15">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J15">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>907.5079715584383</v>
+        <v>927.6228213360826</v>
       </c>
       <c r="R15">
-        <v>907.5079715584383</v>
+        <v>8348.605392024743</v>
       </c>
       <c r="S15">
-        <v>0.04089998431544008</v>
+        <v>0.03741921847997309</v>
       </c>
       <c r="T15">
-        <v>0.04089998431544008</v>
+        <v>0.03956603834469212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H16">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I16">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J16">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>357.6969915080151</v>
+        <v>397.9702481401955</v>
       </c>
       <c r="R16">
-        <v>357.6969915080151</v>
+        <v>2387.821488841173</v>
       </c>
       <c r="S16">
-        <v>0.01612085160776557</v>
+        <v>0.01605365383555147</v>
       </c>
       <c r="T16">
-        <v>0.01612085160776557</v>
+        <v>0.01131645731849074</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H17">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I17">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J17">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>202.3507699735762</v>
+        <v>296.3626604079729</v>
       </c>
       <c r="R17">
-        <v>202.3507699735762</v>
+        <v>2667.263943671756</v>
       </c>
       <c r="S17">
-        <v>0.009119637047291273</v>
+        <v>0.0119549227164757</v>
       </c>
       <c r="T17">
-        <v>0.009119637047291273</v>
+        <v>0.0126408019681401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H18">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I18">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J18">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>1764.877120373578</v>
+        <v>1951.736686604827</v>
       </c>
       <c r="R18">
-        <v>1764.877120373578</v>
+        <v>17565.63017944344</v>
       </c>
       <c r="S18">
-        <v>0.07954028923624747</v>
+        <v>0.07873077269299389</v>
       </c>
       <c r="T18">
-        <v>0.07954028923624747</v>
+        <v>0.08324772397225318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H19">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I19">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J19">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>1440.54384920823</v>
+        <v>1639.089876134353</v>
       </c>
       <c r="R19">
-        <v>1440.54384920823</v>
+        <v>14751.80888520918</v>
       </c>
       <c r="S19">
-        <v>0.06492308903594718</v>
+        <v>0.0661189664297424</v>
       </c>
       <c r="T19">
-        <v>0.06492308903594718</v>
+        <v>0.06991235165616105</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H20">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I20">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J20">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>1591.115364873956</v>
+        <v>1687.389103097583</v>
       </c>
       <c r="R20">
-        <v>1591.115364873956</v>
+        <v>15186.50192787825</v>
       </c>
       <c r="S20">
-        <v>0.071709114968595</v>
+        <v>0.06806730069295919</v>
       </c>
       <c r="T20">
-        <v>0.071709114968595</v>
+        <v>0.07197246598505785</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H21">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I21">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J21">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>627.1428979078036</v>
+        <v>723.9264112773568</v>
       </c>
       <c r="R21">
-        <v>627.1428979078036</v>
+        <v>4343.558467664141</v>
       </c>
       <c r="S21">
-        <v>0.02826436294980477</v>
+        <v>0.02920234380175503</v>
       </c>
       <c r="T21">
-        <v>0.02826436294980477</v>
+        <v>0.02058516276840483</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H22">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I22">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J22">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>41.89100797835773</v>
+        <v>58.02711306563602</v>
       </c>
       <c r="R22">
-        <v>41.89100797835773</v>
+        <v>348.1626783938161</v>
       </c>
       <c r="S22">
-        <v>0.001887963106627628</v>
+        <v>0.00234074579842452</v>
       </c>
       <c r="T22">
-        <v>0.001887963106627628</v>
+        <v>0.001650026230330615</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H23">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I23">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J23">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>365.3679278810998</v>
+        <v>382.1454606732951</v>
       </c>
       <c r="R23">
-        <v>365.3679278810998</v>
+        <v>2292.87276403977</v>
       </c>
       <c r="S23">
-        <v>0.01646656887656832</v>
+        <v>0.01541530043802488</v>
       </c>
       <c r="T23">
-        <v>0.01646656887656832</v>
+        <v>0.01086647259531043</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H24">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I24">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J24">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>298.2238905650636</v>
+        <v>320.929949259656</v>
       </c>
       <c r="R24">
-        <v>298.2238905650636</v>
+        <v>1925.579695557936</v>
       </c>
       <c r="S24">
-        <v>0.01344049069415274</v>
+        <v>0.01294593838346593</v>
       </c>
       <c r="T24">
-        <v>0.01344049069415274</v>
+        <v>0.00912578286943426</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H25">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I25">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J25">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>329.3954673516999</v>
+        <v>330.386824495288</v>
       </c>
       <c r="R25">
-        <v>329.3954673516999</v>
+        <v>1982.320946971728</v>
       </c>
       <c r="S25">
-        <v>0.01484534557324717</v>
+        <v>0.01332741765762853</v>
       </c>
       <c r="T25">
-        <v>0.01484534557324717</v>
+        <v>0.00939469323514738</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H26">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I26">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J26">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>129.8322123669549</v>
+        <v>141.7430915911065</v>
       </c>
       <c r="R26">
-        <v>129.8322123669549</v>
+        <v>566.9723663644261</v>
       </c>
       <c r="S26">
-        <v>0.005851337526356264</v>
+        <v>0.005717750350983241</v>
       </c>
       <c r="T26">
-        <v>0.005851337526356264</v>
+        <v>0.002687017691527901</v>
       </c>
     </row>
   </sheetData>
